--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -127,6 +127,40 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thick">
         <x:color rgb="FF000000"/>
       </x:left>
@@ -144,6 +178,40 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thick">
         <x:color rgb="FF000000"/>
       </x:left>
@@ -170,7 +238,7 @@
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom style="thick">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -181,81 +249,13 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
+      <x:right style="thick">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -270,9 +270,6 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -282,67 +279,70 @@
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -355,10 +355,6 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -371,31 +367,31 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -403,7 +399,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -411,31 +411,31 @@
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -744,7 +744,7 @@
     <x:col min="2" max="2" width="9.27" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.41" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.7" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.55" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.27" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.55" style="0" customWidth="1"/>
     <x:col min="7" max="16384" width="9.850625" style="15" customWidth="1"/>
   </x:cols>
@@ -759,7 +759,7 @@
       <x:c r="F2" s="17" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s">
@@ -771,7 +771,7 @@
       <x:c r="E3" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="10" t="s">
+      <x:c r="F3" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -263,7 +263,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="27">
+  <x:cellStyleXfs count="26">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -309,9 +309,6 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -346,7 +343,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="23">
+  <x:cellXfs count="22">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -405,10 +402,6 @@
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
@@ -738,25 +731,24 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.27" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.41" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.7" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.27" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.55" style="0" customWidth="1"/>
-    <x:col min="7" max="16384" width="9.850625" style="15" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="16" t="s"/>
-      <x:c r="D2" s="16" t="s"/>
-      <x:c r="E2" s="16" t="s"/>
-      <x:c r="F2" s="17" t="s"/>
+      <x:c r="C2" s="15" t="s"/>
+      <x:c r="D2" s="15" t="s"/>
+      <x:c r="E2" s="15" t="s"/>
+      <x:c r="F2" s="16" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="B3" s="4" t="s">
@@ -776,19 +768,19 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="18" t="s">
+      <x:c r="B4" s="17" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C4" s="19" t="s">
+      <x:c r="C4" s="18" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D4" s="20" t="b">
+      <x:c r="D4" s="19" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="21">
+      <x:c r="E4" s="20">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F4" s="22" t="n">
+      <x:c r="F4" s="21" t="n">
         <x:v>2000</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -263,7 +263,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="26">
+  <x:cellStyleXfs count="37">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -298,6 +298,39 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -263,7 +263,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="37">
+  <x:cellStyleXfs count="25">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -312,12 +312,6 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -333,24 +327,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -360,23 +339,8 @@
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="22">
+  <x:cellXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -437,32 +401,12 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -778,10 +722,10 @@
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="15" t="s"/>
-      <x:c r="D2" s="15" t="s"/>
-      <x:c r="E2" s="15" t="s"/>
-      <x:c r="F2" s="16" t="s"/>
+      <x:c r="C2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="B3" s="4" t="s">
@@ -801,19 +745,19 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="17" t="s">
+      <x:c r="B4" s="15" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C4" s="18" t="s">
+      <x:c r="C4" s="16" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D4" s="19" t="b">
+      <x:c r="D4" s="12" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="20">
+      <x:c r="E4" s="13">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F4" s="21" t="n">
+      <x:c r="F4" s="14" t="n">
         <x:v>2000</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -770,14 +770,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -711,11 +711,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="9.1090625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -711,10 +711,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="4" width="9.1090625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.1090625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.085625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.085625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.10125" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -711,11 +711,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.085625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.10125" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.085625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.10125" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -48,7 +48,7 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="1" formatCode="$ #,##0"/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -58,6 +58,20 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -720,7 +720,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -725,11 +725,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.580625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.280625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -278,148 +278,148 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="25">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="17">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/LambdaExpressions.xlsx
@@ -46,7 +46,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
   </x:numFmts>
   <x:fonts count="4">
     <x:font>
@@ -308,7 +308,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -320,7 +320,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -395,7 +395,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -411,7 +411,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
